--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-43/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-43/curvature_data.xlsx
@@ -379,58 +379,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56718.235176</v>
+        <v>56630.439172</v>
       </c>
       <c r="B2">
-        <v>-9.188092868e-05</v>
+        <v>6.6431390909e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00035139705927</v>
+        <v>1.0866189074e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00020227946346</v>
+        <v>-4.265166799e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56729.435176</v>
+        <v>56647.171172</v>
       </c>
       <c r="B3">
-        <v>-4.7163986005e-05</v>
+        <v>-3.4379084559e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00022924036139</v>
+        <v>-0.00010184482294</v>
       </c>
       <c r="D3">
-        <v>-0.00014007357413</v>
+        <v>-9.7846020733e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>56750.567177</v>
+        <v>56657.303173</v>
       </c>
       <c r="B4">
-        <v>6.489096201300001e-05</v>
+        <v>-0.0001404664</v>
       </c>
       <c r="C4">
-        <v>1.2653783601e-05</v>
+        <v>-0.0002294918</v>
       </c>
       <c r="D4">
-        <v>-3.8734357957e-05</v>
+        <v>-0.000161109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>56630.439172</v>
+        <v>56668.503173</v>
       </c>
       <c r="B5">
-        <v>6.6431390909e-05</v>
+        <v>-0.0002570672</v>
       </c>
       <c r="C5">
-        <v>1.0866189074e-05</v>
+        <v>-0.0003608892</v>
       </c>
       <c r="D5">
-        <v>-4.265166799e-05</v>
+        <v>-0.0002237976</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -449,86 +449,86 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>56740.435177</v>
+        <v>56693.971175</v>
       </c>
       <c r="B7">
-        <v>-7.5222398917e-06</v>
+        <v>-0.0001894103</v>
       </c>
       <c r="C7">
-        <v>-7.5160982084e-05</v>
+        <v>-0.0006091482</v>
       </c>
       <c r="D7">
-        <v>-0.00010405064147</v>
+        <v>-0.0003001071</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>56647.171172</v>
+        <v>56706.567175</v>
       </c>
       <c r="B8">
-        <v>-3.4379084559e-05</v>
+        <v>-0.0001379834</v>
       </c>
       <c r="C8">
-        <v>-0.00010184482294</v>
+        <v>-0.0004796506</v>
       </c>
       <c r="D8">
-        <v>-9.7846020733e-05</v>
+        <v>-0.0002548776</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>56706.567175</v>
+        <v>56718.235176</v>
       </c>
       <c r="B9">
-        <v>-0.0001379834</v>
+        <v>-9.188092868e-05</v>
       </c>
       <c r="C9">
-        <v>-0.0004796506</v>
+        <v>-0.00035139705927</v>
       </c>
       <c r="D9">
-        <v>-0.0002548776</v>
+        <v>-0.00020227946346</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>56657.303173</v>
+        <v>56729.435176</v>
       </c>
       <c r="B10">
-        <v>-0.0001404664</v>
+        <v>-4.7163986005e-05</v>
       </c>
       <c r="C10">
-        <v>-0.0002294918</v>
+        <v>-0.00022924036139</v>
       </c>
       <c r="D10">
-        <v>-0.000161109</v>
+        <v>-0.00014007357413</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>56668.503173</v>
+        <v>56740.435177</v>
       </c>
       <c r="B11">
-        <v>-0.0002570672</v>
+        <v>-7.5222398917e-06</v>
       </c>
       <c r="C11">
-        <v>-0.0003608892</v>
+        <v>-7.5160982084e-05</v>
       </c>
       <c r="D11">
-        <v>-0.0002237976</v>
+        <v>-0.00010405064147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>56693.971175</v>
+        <v>56750.567177</v>
       </c>
       <c r="B12">
-        <v>-0.0001894103</v>
+        <v>6.489096201300001e-05</v>
       </c>
       <c r="C12">
-        <v>-0.0006091482</v>
+        <v>1.2653783601e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0003001071</v>
+        <v>-3.8734357957e-05</v>
       </c>
     </row>
   </sheetData>
